--- a/data/out/df_csv.xlsx
+++ b/data/out/df_csv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,7 +485,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">[02.02] Basics - Was war das AE? </t>
+          <t>[02.02] Basics - Was war das AE?</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">[03.02] Konsequenzen - Kam es zu einem Krankenhausaufenthalt oder einer Verlängerung eines solchen? </t>
+          <t>[03.02] Konsequenzen - Kam es zu einem Krankenhausaufenthalt oder einer Verlängerung eines solchen?</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">[04.01.01] Maßnahme - Hat die Person, die die Situation prüfte, ein 'OK' zum Weitermachen gegeben?  </t>
+          <t>[04.01.01] Maßnahme - Hat die Person, die die Situation prüfte, ein 'OK' zum Weitermachen gegeben?</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">[05.07] Rahmenbedingungen - Welche motorische Hauptform dominierte die Bewegungseinheit? </t>
+          <t>[05.07] Rahmenbedingungen - Welche motorische Hauptform dominierte die Bewegungseinheit?</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">

--- a/data/out/df_csv.xlsx
+++ b/data/out/df_csv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GI58"/>
+  <dimension ref="A1:GI59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44847</v>
+        <v>44835</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1894,7 +1894,11 @@
         </is>
       </c>
       <c r="EA2" t="inlineStr"/>
-      <c r="EB2" t="inlineStr"/>
+      <c r="EB2" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC2" t="inlineStr"/>
       <c r="ED2" t="inlineStr"/>
       <c r="EE2" t="inlineStr">
@@ -2093,7 +2097,11 @@
       </c>
       <c r="GG2" t="inlineStr"/>
       <c r="GH2" t="inlineStr"/>
-      <c r="GI2" t="inlineStr"/>
+      <c r="GI2" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2109,7 +2117,7 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>44847.57032407408</v>
+        <v>44835</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -2589,7 +2597,11 @@
         </is>
       </c>
       <c r="EA3" t="inlineStr"/>
-      <c r="EB3" t="inlineStr"/>
+      <c r="EB3" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC3" t="inlineStr"/>
       <c r="ED3" t="inlineStr"/>
       <c r="EE3" t="inlineStr">
@@ -2788,7 +2800,11 @@
       </c>
       <c r="GG3" t="inlineStr"/>
       <c r="GH3" t="inlineStr"/>
-      <c r="GI3" t="inlineStr"/>
+      <c r="GI3" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2804,7 +2820,7 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>44873.38846064815</v>
+        <v>44835</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3294,7 +3310,11 @@
         </is>
       </c>
       <c r="EA4" t="inlineStr"/>
-      <c r="EB4" t="inlineStr"/>
+      <c r="EB4" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC4" t="inlineStr"/>
       <c r="ED4" t="inlineStr"/>
       <c r="EE4" t="inlineStr">
@@ -3493,7 +3513,11 @@
       </c>
       <c r="GG4" t="inlineStr"/>
       <c r="GH4" t="inlineStr"/>
-      <c r="GI4" t="inlineStr"/>
+      <c r="GI4" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3509,7 +3533,7 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>44873.39658564814</v>
+        <v>44866</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -3997,7 +4021,11 @@
         </is>
       </c>
       <c r="EA5" t="inlineStr"/>
-      <c r="EB5" t="inlineStr"/>
+      <c r="EB5" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC5" t="inlineStr"/>
       <c r="ED5" t="inlineStr"/>
       <c r="EE5" t="inlineStr">
@@ -4196,7 +4224,11 @@
       </c>
       <c r="GG5" t="inlineStr"/>
       <c r="GH5" t="inlineStr"/>
-      <c r="GI5" t="inlineStr"/>
+      <c r="GI5" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -4212,7 +4244,7 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>44883.42424768519</v>
+        <v>44866</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -4684,7 +4716,11 @@
         </is>
       </c>
       <c r="EA6" t="inlineStr"/>
-      <c r="EB6" t="inlineStr"/>
+      <c r="EB6" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC6" t="inlineStr"/>
       <c r="ED6" t="inlineStr"/>
       <c r="EE6" t="inlineStr">
@@ -4883,7 +4919,11 @@
       </c>
       <c r="GG6" t="inlineStr"/>
       <c r="GH6" t="inlineStr"/>
-      <c r="GI6" t="inlineStr"/>
+      <c r="GI6" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -4899,7 +4939,7 @@
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>44886.58501157408</v>
+        <v>44866</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -5389,7 +5429,11 @@
         </is>
       </c>
       <c r="EA7" t="inlineStr"/>
-      <c r="EB7" t="inlineStr"/>
+      <c r="EB7" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC7" t="inlineStr"/>
       <c r="ED7" t="inlineStr"/>
       <c r="EE7" t="inlineStr">
@@ -5588,7 +5632,11 @@
       </c>
       <c r="GG7" t="inlineStr"/>
       <c r="GH7" t="inlineStr"/>
-      <c r="GI7" t="inlineStr"/>
+      <c r="GI7" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -5604,7 +5652,7 @@
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>44924.39174768519</v>
+        <v>44896</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -6110,7 +6158,11 @@
         </is>
       </c>
       <c r="EA8" t="inlineStr"/>
-      <c r="EB8" t="inlineStr"/>
+      <c r="EB8" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC8" t="inlineStr"/>
       <c r="ED8" t="inlineStr"/>
       <c r="EE8" t="inlineStr">
@@ -6309,7 +6361,11 @@
       </c>
       <c r="GG8" t="inlineStr"/>
       <c r="GH8" t="inlineStr"/>
-      <c r="GI8" t="inlineStr"/>
+      <c r="GI8" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -6325,7 +6381,7 @@
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>44936.60767361111</v>
+        <v>44927</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -6793,7 +6849,11 @@
         </is>
       </c>
       <c r="EA9" t="inlineStr"/>
-      <c r="EB9" t="inlineStr"/>
+      <c r="EB9" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC9" t="inlineStr"/>
       <c r="ED9" t="inlineStr"/>
       <c r="EE9" t="inlineStr">
@@ -6992,7 +7052,11 @@
       </c>
       <c r="GG9" t="inlineStr"/>
       <c r="GH9" t="inlineStr"/>
-      <c r="GI9" t="inlineStr"/>
+      <c r="GI9" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -7008,7 +7072,7 @@
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>44936.61480324074</v>
+        <v>44927</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -7486,7 +7550,11 @@
         </is>
       </c>
       <c r="EA10" t="inlineStr"/>
-      <c r="EB10" t="inlineStr"/>
+      <c r="EB10" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC10" t="inlineStr"/>
       <c r="ED10" t="inlineStr"/>
       <c r="EE10" t="inlineStr">
@@ -7685,7 +7753,11 @@
       </c>
       <c r="GG10" t="inlineStr"/>
       <c r="GH10" t="inlineStr"/>
-      <c r="GI10" t="inlineStr"/>
+      <c r="GI10" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -7701,7 +7773,7 @@
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>44939.63165509259</v>
+        <v>44927</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -8169,7 +8241,11 @@
         </is>
       </c>
       <c r="EA11" t="inlineStr"/>
-      <c r="EB11" t="inlineStr"/>
+      <c r="EB11" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC11" t="inlineStr"/>
       <c r="ED11" t="inlineStr"/>
       <c r="EE11" t="inlineStr">
@@ -8368,7 +8444,11 @@
       </c>
       <c r="GG11" t="inlineStr"/>
       <c r="GH11" t="inlineStr"/>
-      <c r="GI11" t="inlineStr"/>
+      <c r="GI11" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -8384,7 +8464,7 @@
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>44957.46680555555</v>
+        <v>44927</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -8872,7 +8952,11 @@
         </is>
       </c>
       <c r="EA12" t="inlineStr"/>
-      <c r="EB12" t="inlineStr"/>
+      <c r="EB12" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC12" t="inlineStr"/>
       <c r="ED12" t="inlineStr"/>
       <c r="EE12" t="inlineStr">
@@ -9071,7 +9155,11 @@
       </c>
       <c r="GG12" t="inlineStr"/>
       <c r="GH12" t="inlineStr"/>
-      <c r="GI12" t="inlineStr"/>
+      <c r="GI12" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -9087,7 +9175,7 @@
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>44957.47119212963</v>
+        <v>44927</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -9547,7 +9635,11 @@
         </is>
       </c>
       <c r="EA13" t="inlineStr"/>
-      <c r="EB13" t="inlineStr"/>
+      <c r="EB13" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC13" t="inlineStr"/>
       <c r="ED13" t="inlineStr"/>
       <c r="EE13" t="inlineStr">
@@ -9746,7 +9838,11 @@
       </c>
       <c r="GG13" t="inlineStr"/>
       <c r="GH13" t="inlineStr"/>
-      <c r="GI13" t="inlineStr"/>
+      <c r="GI13" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -9762,7 +9858,7 @@
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>44963.4025925926</v>
+        <v>44927</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -10256,7 +10352,11 @@
         </is>
       </c>
       <c r="EA14" t="inlineStr"/>
-      <c r="EB14" t="inlineStr"/>
+      <c r="EB14" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC14" t="inlineStr"/>
       <c r="ED14" t="inlineStr"/>
       <c r="EE14" t="inlineStr">
@@ -10455,7 +10555,11 @@
       </c>
       <c r="GG14" t="inlineStr"/>
       <c r="GH14" t="inlineStr"/>
-      <c r="GI14" t="inlineStr"/>
+      <c r="GI14" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -10471,7 +10575,7 @@
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>44979.46876157408</v>
+        <v>44958</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -10965,7 +11069,11 @@
         </is>
       </c>
       <c r="EA15" t="inlineStr"/>
-      <c r="EB15" t="inlineStr"/>
+      <c r="EB15" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC15" t="inlineStr"/>
       <c r="ED15" t="inlineStr"/>
       <c r="EE15" t="inlineStr">
@@ -11164,7 +11272,11 @@
       </c>
       <c r="GG15" t="inlineStr"/>
       <c r="GH15" t="inlineStr"/>
-      <c r="GI15" t="inlineStr"/>
+      <c r="GI15" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -11180,7 +11292,7 @@
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>44992.53207175926</v>
+        <v>44986</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -11674,7 +11786,11 @@
         </is>
       </c>
       <c r="EA16" t="inlineStr"/>
-      <c r="EB16" t="inlineStr"/>
+      <c r="EB16" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC16" t="inlineStr"/>
       <c r="ED16" t="inlineStr"/>
       <c r="EE16" t="inlineStr">
@@ -11873,7 +11989,11 @@
       </c>
       <c r="GG16" t="inlineStr"/>
       <c r="GH16" t="inlineStr"/>
-      <c r="GI16" t="inlineStr"/>
+      <c r="GI16" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -12371,7 +12491,11 @@
         </is>
       </c>
       <c r="EA17" t="inlineStr"/>
-      <c r="EB17" t="inlineStr"/>
+      <c r="EB17" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC17" t="inlineStr"/>
       <c r="ED17" t="inlineStr"/>
       <c r="EE17" t="inlineStr">
@@ -12570,7 +12694,11 @@
       </c>
       <c r="GG17" t="inlineStr"/>
       <c r="GH17" t="inlineStr"/>
-      <c r="GI17" t="inlineStr"/>
+      <c r="GI17" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -13054,7 +13182,11 @@
         </is>
       </c>
       <c r="EA18" t="inlineStr"/>
-      <c r="EB18" t="inlineStr"/>
+      <c r="EB18" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC18" t="inlineStr"/>
       <c r="ED18" t="inlineStr"/>
       <c r="EE18" t="inlineStr">
@@ -13253,7 +13385,11 @@
       </c>
       <c r="GG18" t="inlineStr"/>
       <c r="GH18" t="inlineStr"/>
-      <c r="GI18" t="inlineStr"/>
+      <c r="GI18" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -13721,7 +13857,11 @@
         </is>
       </c>
       <c r="EA19" t="inlineStr"/>
-      <c r="EB19" t="inlineStr"/>
+      <c r="EB19" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC19" t="inlineStr"/>
       <c r="ED19" t="inlineStr"/>
       <c r="EE19" t="inlineStr">
@@ -13920,7 +14060,11 @@
       </c>
       <c r="GG19" t="inlineStr"/>
       <c r="GH19" t="inlineStr"/>
-      <c r="GI19" t="inlineStr"/>
+      <c r="GI19" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -14422,7 +14566,11 @@
         </is>
       </c>
       <c r="EA20" t="inlineStr"/>
-      <c r="EB20" t="inlineStr"/>
+      <c r="EB20" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC20" t="inlineStr"/>
       <c r="ED20" t="inlineStr"/>
       <c r="EE20" t="inlineStr">
@@ -14621,7 +14769,11 @@
       </c>
       <c r="GG20" t="inlineStr"/>
       <c r="GH20" t="inlineStr"/>
-      <c r="GI20" t="inlineStr"/>
+      <c r="GI20" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -15123,7 +15275,11 @@
         </is>
       </c>
       <c r="EA21" t="inlineStr"/>
-      <c r="EB21" t="inlineStr"/>
+      <c r="EB21" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC21" t="inlineStr"/>
       <c r="ED21" t="inlineStr"/>
       <c r="EE21" t="inlineStr">
@@ -15322,7 +15478,11 @@
       </c>
       <c r="GG21" t="inlineStr"/>
       <c r="GH21" t="inlineStr"/>
-      <c r="GI21" t="inlineStr"/>
+      <c r="GI21" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -15812,7 +15972,11 @@
         </is>
       </c>
       <c r="EA22" t="inlineStr"/>
-      <c r="EB22" t="inlineStr"/>
+      <c r="EB22" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC22" t="inlineStr"/>
       <c r="ED22" t="inlineStr"/>
       <c r="EE22" t="inlineStr">
@@ -16011,7 +16175,11 @@
       </c>
       <c r="GG22" t="inlineStr"/>
       <c r="GH22" t="inlineStr"/>
-      <c r="GI22" t="inlineStr"/>
+      <c r="GI22" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -16503,7 +16671,11 @@
         </is>
       </c>
       <c r="EA23" t="inlineStr"/>
-      <c r="EB23" t="inlineStr"/>
+      <c r="EB23" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC23" t="inlineStr"/>
       <c r="ED23" t="inlineStr"/>
       <c r="EE23" t="inlineStr">
@@ -16702,7 +16874,11 @@
       </c>
       <c r="GG23" t="inlineStr"/>
       <c r="GH23" t="inlineStr"/>
-      <c r="GI23" t="inlineStr"/>
+      <c r="GI23" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -17196,7 +17372,11 @@
         </is>
       </c>
       <c r="EA24" t="inlineStr"/>
-      <c r="EB24" t="inlineStr"/>
+      <c r="EB24" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC24" t="inlineStr"/>
       <c r="ED24" t="inlineStr"/>
       <c r="EE24" t="inlineStr">
@@ -17395,7 +17575,11 @@
       </c>
       <c r="GG24" t="inlineStr"/>
       <c r="GH24" t="inlineStr"/>
-      <c r="GI24" t="inlineStr"/>
+      <c r="GI24" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -17897,7 +18081,11 @@
         </is>
       </c>
       <c r="EA25" t="inlineStr"/>
-      <c r="EB25" t="inlineStr"/>
+      <c r="EB25" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC25" t="inlineStr"/>
       <c r="ED25" t="inlineStr"/>
       <c r="EE25" t="inlineStr">
@@ -18096,7 +18284,11 @@
       </c>
       <c r="GG25" t="inlineStr"/>
       <c r="GH25" t="inlineStr"/>
-      <c r="GI25" t="inlineStr"/>
+      <c r="GI25" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -18578,7 +18770,11 @@
         </is>
       </c>
       <c r="EA26" t="inlineStr"/>
-      <c r="EB26" t="inlineStr"/>
+      <c r="EB26" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC26" t="inlineStr"/>
       <c r="ED26" t="inlineStr"/>
       <c r="EE26" t="inlineStr">
@@ -18777,7 +18973,11 @@
       </c>
       <c r="GG26" t="inlineStr"/>
       <c r="GH26" t="inlineStr"/>
-      <c r="GI26" t="inlineStr"/>
+      <c r="GI26" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -19275,7 +19475,11 @@
         </is>
       </c>
       <c r="EA27" t="inlineStr"/>
-      <c r="EB27" t="inlineStr"/>
+      <c r="EB27" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC27" t="inlineStr"/>
       <c r="ED27" t="inlineStr"/>
       <c r="EE27" t="inlineStr">
@@ -19474,7 +19678,11 @@
       </c>
       <c r="GG27" t="inlineStr"/>
       <c r="GH27" t="inlineStr"/>
-      <c r="GI27" t="inlineStr"/>
+      <c r="GI27" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -19972,7 +20180,11 @@
         </is>
       </c>
       <c r="EA28" t="inlineStr"/>
-      <c r="EB28" t="inlineStr"/>
+      <c r="EB28" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC28" t="inlineStr"/>
       <c r="ED28" t="inlineStr"/>
       <c r="EE28" t="inlineStr">
@@ -20171,7 +20383,11 @@
       </c>
       <c r="GG28" t="inlineStr"/>
       <c r="GH28" t="inlineStr"/>
-      <c r="GI28" t="inlineStr"/>
+      <c r="GI28" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -20655,7 +20871,11 @@
         </is>
       </c>
       <c r="EA29" t="inlineStr"/>
-      <c r="EB29" t="inlineStr"/>
+      <c r="EB29" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC29" t="inlineStr"/>
       <c r="ED29" t="inlineStr"/>
       <c r="EE29" t="inlineStr">
@@ -20854,7 +21074,11 @@
       </c>
       <c r="GG29" t="inlineStr"/>
       <c r="GH29" t="inlineStr"/>
-      <c r="GI29" t="inlineStr"/>
+      <c r="GI29" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -21360,7 +21584,11 @@
         </is>
       </c>
       <c r="EA30" t="inlineStr"/>
-      <c r="EB30" t="inlineStr"/>
+      <c r="EB30" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC30" t="inlineStr"/>
       <c r="ED30" t="inlineStr"/>
       <c r="EE30" t="inlineStr">
@@ -21559,7 +21787,11 @@
       </c>
       <c r="GG30" t="inlineStr"/>
       <c r="GH30" t="inlineStr"/>
-      <c r="GI30" t="inlineStr"/>
+      <c r="GI30" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -22035,7 +22267,11 @@
         </is>
       </c>
       <c r="EA31" t="inlineStr"/>
-      <c r="EB31" t="inlineStr"/>
+      <c r="EB31" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC31" t="inlineStr"/>
       <c r="ED31" t="inlineStr"/>
       <c r="EE31" t="inlineStr">
@@ -22234,7 +22470,11 @@
       </c>
       <c r="GG31" t="inlineStr"/>
       <c r="GH31" t="inlineStr"/>
-      <c r="GI31" t="inlineStr"/>
+      <c r="GI31" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -22718,7 +22958,11 @@
         </is>
       </c>
       <c r="EA32" t="inlineStr"/>
-      <c r="EB32" t="inlineStr"/>
+      <c r="EB32" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC32" t="inlineStr"/>
       <c r="ED32" t="inlineStr"/>
       <c r="EE32" t="inlineStr">
@@ -22917,7 +23161,11 @@
       </c>
       <c r="GG32" t="inlineStr"/>
       <c r="GH32" t="inlineStr"/>
-      <c r="GI32" t="inlineStr"/>
+      <c r="GI32" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -23381,7 +23629,11 @@
         </is>
       </c>
       <c r="EA33" t="inlineStr"/>
-      <c r="EB33" t="inlineStr"/>
+      <c r="EB33" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC33" t="inlineStr"/>
       <c r="ED33" t="inlineStr"/>
       <c r="EE33" t="inlineStr">
@@ -23580,7 +23832,11 @@
       </c>
       <c r="GG33" t="inlineStr"/>
       <c r="GH33" t="inlineStr"/>
-      <c r="GI33" t="inlineStr"/>
+      <c r="GI33" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -24052,7 +24308,11 @@
         </is>
       </c>
       <c r="EA34" t="inlineStr"/>
-      <c r="EB34" t="inlineStr"/>
+      <c r="EB34" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC34" t="inlineStr"/>
       <c r="ED34" t="inlineStr"/>
       <c r="EE34" t="inlineStr">
@@ -24251,7 +24511,11 @@
       </c>
       <c r="GG34" t="inlineStr"/>
       <c r="GH34" t="inlineStr"/>
-      <c r="GI34" t="inlineStr"/>
+      <c r="GI34" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -24731,7 +24995,11 @@
         </is>
       </c>
       <c r="EA35" t="inlineStr"/>
-      <c r="EB35" t="inlineStr"/>
+      <c r="EB35" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC35" t="inlineStr"/>
       <c r="ED35" t="inlineStr"/>
       <c r="EE35" t="inlineStr">
@@ -24930,7 +25198,11 @@
       </c>
       <c r="GG35" t="inlineStr"/>
       <c r="GH35" t="inlineStr"/>
-      <c r="GI35" t="inlineStr"/>
+      <c r="GI35" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -25432,7 +25704,11 @@
         </is>
       </c>
       <c r="EA36" t="inlineStr"/>
-      <c r="EB36" t="inlineStr"/>
+      <c r="EB36" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC36" t="inlineStr"/>
       <c r="ED36" t="inlineStr"/>
       <c r="EE36" t="inlineStr">
@@ -25631,7 +25907,11 @@
       </c>
       <c r="GG36" t="inlineStr"/>
       <c r="GH36" t="inlineStr"/>
-      <c r="GI36" t="inlineStr"/>
+      <c r="GI36" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -26125,7 +26405,11 @@
         </is>
       </c>
       <c r="EA37" t="inlineStr"/>
-      <c r="EB37" t="inlineStr"/>
+      <c r="EB37" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC37" t="inlineStr"/>
       <c r="ED37" t="inlineStr"/>
       <c r="EE37" t="inlineStr">
@@ -26324,7 +26608,11 @@
       </c>
       <c r="GG37" t="inlineStr"/>
       <c r="GH37" t="inlineStr"/>
-      <c r="GI37" t="inlineStr"/>
+      <c r="GI37" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -26336,7 +26624,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" s="2" t="n">
-        <v>45166</v>
+        <v>45158</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -26812,7 +27100,11 @@
         </is>
       </c>
       <c r="EA38" t="inlineStr"/>
-      <c r="EB38" t="inlineStr"/>
+      <c r="EB38" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC38" t="inlineStr"/>
       <c r="ED38" t="inlineStr"/>
       <c r="EE38" t="inlineStr">
@@ -27011,7 +27303,11 @@
       </c>
       <c r="GG38" t="inlineStr"/>
       <c r="GH38" t="inlineStr"/>
-      <c r="GI38" t="inlineStr"/>
+      <c r="GI38" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -27505,7 +27801,11 @@
         </is>
       </c>
       <c r="EA39" t="inlineStr"/>
-      <c r="EB39" t="inlineStr"/>
+      <c r="EB39" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC39" t="inlineStr"/>
       <c r="ED39" t="inlineStr"/>
       <c r="EE39" t="inlineStr">
@@ -27704,7 +28004,11 @@
       </c>
       <c r="GG39" t="inlineStr"/>
       <c r="GH39" t="inlineStr"/>
-      <c r="GI39" t="inlineStr"/>
+      <c r="GI39" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -28202,7 +28506,11 @@
         </is>
       </c>
       <c r="EA40" t="inlineStr"/>
-      <c r="EB40" t="inlineStr"/>
+      <c r="EB40" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC40" t="inlineStr"/>
       <c r="ED40" t="inlineStr"/>
       <c r="EE40" t="inlineStr">
@@ -28401,7 +28709,11 @@
       </c>
       <c r="GG40" t="inlineStr"/>
       <c r="GH40" t="inlineStr"/>
-      <c r="GI40" t="inlineStr"/>
+      <c r="GI40" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -28887,7 +29199,11 @@
         </is>
       </c>
       <c r="EA41" t="inlineStr"/>
-      <c r="EB41" t="inlineStr"/>
+      <c r="EB41" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC41" t="inlineStr"/>
       <c r="ED41" t="inlineStr"/>
       <c r="EE41" t="inlineStr">
@@ -29086,7 +29402,11 @@
       </c>
       <c r="GG41" t="inlineStr"/>
       <c r="GH41" t="inlineStr"/>
-      <c r="GI41" t="inlineStr"/>
+      <c r="GI41" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -29100,7 +29420,11 @@
       <c r="E42" s="2" t="n">
         <v>45209</v>
       </c>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -29566,7 +29890,11 @@
         </is>
       </c>
       <c r="EA42" t="inlineStr"/>
-      <c r="EB42" t="inlineStr"/>
+      <c r="EB42" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC42" t="inlineStr"/>
       <c r="ED42" t="inlineStr"/>
       <c r="EE42" t="inlineStr">
@@ -29765,7 +30093,11 @@
       </c>
       <c r="GG42" t="inlineStr"/>
       <c r="GH42" t="inlineStr"/>
-      <c r="GI42" t="inlineStr"/>
+      <c r="GI42" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -30243,7 +30575,11 @@
         </is>
       </c>
       <c r="EA43" t="inlineStr"/>
-      <c r="EB43" t="inlineStr"/>
+      <c r="EB43" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC43" t="inlineStr"/>
       <c r="ED43" t="inlineStr"/>
       <c r="EE43" t="inlineStr">
@@ -30442,7 +30778,11 @@
       </c>
       <c r="GG43" t="inlineStr"/>
       <c r="GH43" t="inlineStr"/>
-      <c r="GI43" t="inlineStr"/>
+      <c r="GI43" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -30940,7 +31280,11 @@
         </is>
       </c>
       <c r="EA44" t="inlineStr"/>
-      <c r="EB44" t="inlineStr"/>
+      <c r="EB44" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC44" t="inlineStr"/>
       <c r="ED44" t="inlineStr"/>
       <c r="EE44" t="inlineStr">
@@ -31139,7 +31483,11 @@
       </c>
       <c r="GG44" t="inlineStr"/>
       <c r="GH44" t="inlineStr"/>
-      <c r="GI44" t="inlineStr"/>
+      <c r="GI44" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -31619,7 +31967,11 @@
         </is>
       </c>
       <c r="EA45" t="inlineStr"/>
-      <c r="EB45" t="inlineStr"/>
+      <c r="EB45" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC45" t="inlineStr"/>
       <c r="ED45" t="inlineStr"/>
       <c r="EE45" t="inlineStr">
@@ -31818,7 +32170,11 @@
       </c>
       <c r="GG45" t="inlineStr"/>
       <c r="GH45" t="inlineStr"/>
-      <c r="GI45" t="inlineStr"/>
+      <c r="GI45" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -32328,7 +32684,11 @@
         </is>
       </c>
       <c r="EA46" t="inlineStr"/>
-      <c r="EB46" t="inlineStr"/>
+      <c r="EB46" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC46" t="inlineStr"/>
       <c r="ED46" t="inlineStr"/>
       <c r="EE46" t="inlineStr">
@@ -32527,7 +32887,11 @@
       </c>
       <c r="GG46" t="inlineStr"/>
       <c r="GH46" t="inlineStr"/>
-      <c r="GI46" t="inlineStr"/>
+      <c r="GI46" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -32539,9 +32903,13 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" s="2" t="n">
-        <v>45301</v>
-      </c>
-      <c r="F47" t="inlineStr"/>
+        <v>44936</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
           <t>No</t>
@@ -33007,7 +33375,11 @@
         </is>
       </c>
       <c r="EA47" t="inlineStr"/>
-      <c r="EB47" t="inlineStr"/>
+      <c r="EB47" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC47" t="inlineStr"/>
       <c r="ED47" t="inlineStr"/>
       <c r="EE47" t="inlineStr">
@@ -33206,7 +33578,11 @@
       </c>
       <c r="GG47" t="inlineStr"/>
       <c r="GH47" t="inlineStr"/>
-      <c r="GI47" t="inlineStr"/>
+      <c r="GI47" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -33682,7 +34058,11 @@
         </is>
       </c>
       <c r="EA48" t="inlineStr"/>
-      <c r="EB48" t="inlineStr"/>
+      <c r="EB48" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC48" t="inlineStr"/>
       <c r="ED48" t="inlineStr"/>
       <c r="EE48" t="inlineStr">
@@ -33881,7 +34261,11 @@
       </c>
       <c r="GG48" t="inlineStr"/>
       <c r="GH48" t="inlineStr"/>
-      <c r="GI48" t="inlineStr"/>
+      <c r="GI48" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -34353,7 +34737,11 @@
         </is>
       </c>
       <c r="EA49" t="inlineStr"/>
-      <c r="EB49" t="inlineStr"/>
+      <c r="EB49" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC49" t="inlineStr"/>
       <c r="ED49" t="inlineStr"/>
       <c r="EE49" t="inlineStr">
@@ -34552,7 +34940,11 @@
       </c>
       <c r="GG49" t="inlineStr"/>
       <c r="GH49" t="inlineStr"/>
-      <c r="GI49" t="inlineStr"/>
+      <c r="GI49" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -35020,7 +35412,11 @@
         </is>
       </c>
       <c r="EA50" t="inlineStr"/>
-      <c r="EB50" t="inlineStr"/>
+      <c r="EB50" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC50" t="inlineStr"/>
       <c r="ED50" t="inlineStr"/>
       <c r="EE50" t="inlineStr">
@@ -35219,7 +35615,11 @@
       </c>
       <c r="GG50" t="inlineStr"/>
       <c r="GH50" t="inlineStr"/>
-      <c r="GI50" t="inlineStr"/>
+      <c r="GI50" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -35737,7 +36137,11 @@
         </is>
       </c>
       <c r="EA51" t="inlineStr"/>
-      <c r="EB51" t="inlineStr"/>
+      <c r="EB51" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC51" t="inlineStr"/>
       <c r="ED51" t="inlineStr"/>
       <c r="EE51" t="inlineStr">
@@ -35936,7 +36340,11 @@
       </c>
       <c r="GG51" t="inlineStr"/>
       <c r="GH51" t="inlineStr"/>
-      <c r="GI51" t="inlineStr"/>
+      <c r="GI51" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -36434,7 +36842,11 @@
         </is>
       </c>
       <c r="EA52" t="inlineStr"/>
-      <c r="EB52" t="inlineStr"/>
+      <c r="EB52" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC52" t="inlineStr"/>
       <c r="ED52" t="inlineStr"/>
       <c r="EE52" t="inlineStr">
@@ -36633,7 +37045,11 @@
       </c>
       <c r="GG52" t="inlineStr"/>
       <c r="GH52" t="inlineStr"/>
-      <c r="GI52" t="inlineStr"/>
+      <c r="GI52" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -37131,7 +37547,11 @@
         </is>
       </c>
       <c r="EA53" t="inlineStr"/>
-      <c r="EB53" t="inlineStr"/>
+      <c r="EB53" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC53" t="inlineStr"/>
       <c r="ED53" t="inlineStr"/>
       <c r="EE53" t="inlineStr">
@@ -37330,7 +37750,11 @@
       </c>
       <c r="GG53" t="inlineStr"/>
       <c r="GH53" t="inlineStr"/>
-      <c r="GI53" t="inlineStr"/>
+      <c r="GI53" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -37824,7 +38248,11 @@
         </is>
       </c>
       <c r="EA54" t="inlineStr"/>
-      <c r="EB54" t="inlineStr"/>
+      <c r="EB54" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC54" t="inlineStr"/>
       <c r="ED54" t="inlineStr"/>
       <c r="EE54" t="inlineStr">
@@ -38023,7 +38451,11 @@
       </c>
       <c r="GG54" t="inlineStr"/>
       <c r="GH54" t="inlineStr"/>
-      <c r="GI54" t="inlineStr"/>
+      <c r="GI54" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -38499,7 +38931,11 @@
         </is>
       </c>
       <c r="EA55" t="inlineStr"/>
-      <c r="EB55" t="inlineStr"/>
+      <c r="EB55" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC55" t="inlineStr"/>
       <c r="ED55" t="inlineStr"/>
       <c r="EE55" t="inlineStr">
@@ -38698,7 +39134,11 @@
       </c>
       <c r="GG55" t="inlineStr"/>
       <c r="GH55" t="inlineStr"/>
-      <c r="GI55" t="inlineStr"/>
+      <c r="GI55" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -39178,7 +39618,11 @@
         </is>
       </c>
       <c r="EA56" t="inlineStr"/>
-      <c r="EB56" t="inlineStr"/>
+      <c r="EB56" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC56" t="inlineStr"/>
       <c r="ED56" t="inlineStr"/>
       <c r="EE56" t="inlineStr">
@@ -39377,7 +39821,11 @@
       </c>
       <c r="GG56" t="inlineStr"/>
       <c r="GH56" t="inlineStr"/>
-      <c r="GI56" t="inlineStr"/>
+      <c r="GI56" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -39875,7 +40323,11 @@
         </is>
       </c>
       <c r="EA57" t="inlineStr"/>
-      <c r="EB57" t="inlineStr"/>
+      <c r="EB57" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC57" t="inlineStr"/>
       <c r="ED57" t="inlineStr"/>
       <c r="EE57" t="inlineStr">
@@ -40074,7 +40526,11 @@
       </c>
       <c r="GG57" t="inlineStr"/>
       <c r="GH57" t="inlineStr"/>
-      <c r="GI57" t="inlineStr"/>
+      <c r="GI57" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -40572,7 +41028,11 @@
         </is>
       </c>
       <c r="EA58" t="inlineStr"/>
-      <c r="EB58" t="inlineStr"/>
+      <c r="EB58" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
       <c r="EC58" t="inlineStr"/>
       <c r="ED58" t="inlineStr"/>
       <c r="EE58" t="inlineStr">
@@ -40771,7 +41231,724 @@
       </c>
       <c r="GG58" t="inlineStr"/>
       <c r="GH58" t="inlineStr"/>
-      <c r="GI58" t="inlineStr"/>
+      <c r="GI58" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60</v>
+      </c>
+      <c r="B59" t="n">
+        <v>61</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" s="2" t="n">
+        <v>45435</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Weichteilverletzung</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Kind mit Downsyndron spielt Ball und häölt diesen "zum Kuss" immer wieder an die Lipenne. Die Mutter und ich versuchen das zu verhindern, da sie eine offene Stelle an der Lippe hat; plötzlich öffnet sich die Wunde an der Lippe erneut und blutet</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Mukositis mit offener Stelle am Mund fängt nach Ballkontakt an zu bluten</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Weitere</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Verständinsprobleme</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Kopf</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Checked</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>2. mittel</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Kind weint und Verletzung gibt Anlass zu dieser Einschätzung</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr"/>
+      <c r="AO59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="AP59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="AQ59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="AR59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="AS59" t="inlineStr">
+        <is>
+          <t>Checked</t>
+        </is>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AU59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AV59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW59" t="inlineStr"/>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+      <c r="AZ59" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="BA59" t="inlineStr"/>
+      <c r="BB59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BC59" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="BD59" t="inlineStr"/>
+      <c r="BE59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BF59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BG59" t="inlineStr"/>
+      <c r="BH59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BI59" t="inlineStr">
+        <is>
+          <t>Ball wurde durch Ballon ersetzt, da deiser weicher ist</t>
+        </is>
+      </c>
+      <c r="BJ59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BK59" t="inlineStr">
+        <is>
+          <t>Checked</t>
+        </is>
+      </c>
+      <c r="BL59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="BM59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="BN59" t="inlineStr">
+        <is>
+          <t>1 Akuttherapie</t>
+        </is>
+      </c>
+      <c r="BO59" t="inlineStr">
+        <is>
+          <t>2 Gruppe 2 bis 5 TN</t>
+        </is>
+      </c>
+      <c r="BP59" t="inlineStr">
+        <is>
+          <t>02 bis 5 Jahre</t>
+        </is>
+      </c>
+      <c r="BQ59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BS59" t="inlineStr">
+        <is>
+          <t>Pat.-Zimmer</t>
+        </is>
+      </c>
+      <c r="BT59" t="inlineStr">
+        <is>
+          <t>Koordination</t>
+        </is>
+      </c>
+      <c r="BU59" t="inlineStr">
+        <is>
+          <t>2. Hälfte</t>
+        </is>
+      </c>
+      <c r="BV59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="BW59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="BX59" t="inlineStr">
+        <is>
+          <t>Checked</t>
+        </is>
+      </c>
+      <c r="BY59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="BZ59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="CA59" t="inlineStr"/>
+      <c r="CB59" t="inlineStr"/>
+      <c r="CC59" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="CD59" t="inlineStr"/>
+      <c r="CE59" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="CF59" t="inlineStr"/>
+      <c r="CG59" t="inlineStr"/>
+      <c r="CH59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="CI59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="CJ59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="CK59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="CL59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="CM59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="CN59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="CO59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="CP59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="CQ59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="CR59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="CS59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="CT59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="CU59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="CV59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="CW59" t="inlineStr"/>
+      <c r="CX59" t="inlineStr"/>
+      <c r="CY59" t="inlineStr"/>
+      <c r="CZ59" t="inlineStr"/>
+      <c r="DA59" t="inlineStr"/>
+      <c r="DB59" t="inlineStr"/>
+      <c r="DC59" t="inlineStr"/>
+      <c r="DD59" t="inlineStr"/>
+      <c r="DE59" t="inlineStr"/>
+      <c r="DF59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="DG59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="DH59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="DI59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="DJ59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="DK59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="DL59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="DM59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="DN59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="DO59" t="inlineStr"/>
+      <c r="DP59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="DQ59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="DR59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="DS59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="DT59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="DU59" t="inlineStr"/>
+      <c r="DV59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="DW59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="DX59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="DY59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="DZ59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="EA59" t="inlineStr"/>
+      <c r="EB59" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="EC59" t="inlineStr"/>
+      <c r="ED59" t="inlineStr"/>
+      <c r="EE59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="EF59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="EG59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="EH59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="EI59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="EJ59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="EK59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="EL59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="EM59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="EN59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="EO59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="EP59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="EQ59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="ER59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="ES59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="ET59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="EU59" t="inlineStr"/>
+      <c r="EV59" t="inlineStr"/>
+      <c r="EW59" t="inlineStr"/>
+      <c r="EX59" t="inlineStr"/>
+      <c r="EY59" t="inlineStr"/>
+      <c r="EZ59" t="inlineStr"/>
+      <c r="FA59" t="inlineStr"/>
+      <c r="FB59" t="inlineStr"/>
+      <c r="FC59" t="inlineStr"/>
+      <c r="FD59" t="inlineStr"/>
+      <c r="FE59" t="inlineStr"/>
+      <c r="FF59" t="inlineStr"/>
+      <c r="FG59" t="inlineStr"/>
+      <c r="FH59" t="inlineStr"/>
+      <c r="FI59" t="inlineStr"/>
+      <c r="FJ59" t="inlineStr"/>
+      <c r="FK59" t="inlineStr"/>
+      <c r="FL59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="FM59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="FN59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="FO59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="FP59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="FQ59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="FR59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="FS59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="FT59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="FU59" t="inlineStr"/>
+      <c r="FV59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="FW59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="FX59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="FY59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="FZ59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="GA59" t="inlineStr"/>
+      <c r="GB59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="GC59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="GD59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="GE59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="GF59" t="inlineStr">
+        <is>
+          <t>Unchecked</t>
+        </is>
+      </c>
+      <c r="GG59" t="inlineStr"/>
+      <c r="GH59" t="inlineStr"/>
+      <c r="GI59" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
